--- a/data/US9414_01/OutputFiles/US9414_03_Output.xlsx
+++ b/data/US9414_01/OutputFiles/US9414_03_Output.xlsx
@@ -3,9 +3,6 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="11100" windowHeight="6705"/>
-  </bookViews>
   <sheets>
     <sheet name="US9414_03_Output" sheetId="1" r:id="rId1"/>
   </sheets>
@@ -19,7 +16,7 @@
     <t>QuoteNumber</t>
   </si>
   <si>
-    <t>NI00158286</t>
+    <t>NI00161471</t>
   </si>
 </sst>
 </file>
@@ -28,10 +25,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="772" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="770" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="773" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="771" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="84" formatCode="_(* #,##0.00_);\(* #,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="82" formatCode="_(* #,##0_);\(* #,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="85" formatCode="_(&quot;$&quot;* #,##0.00_);\(&quot;$&quot;* #,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="83" formatCode="_(&quot;$&quot;* #,##0_);\(&quot;$&quot;* #,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="9" formatCode="0%"/>
   </numFmts>
   <fonts count="6">
@@ -113,12 +110,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="772" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="770" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="773" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="771" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="84" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="82" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="85" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="83" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyBorder="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
